--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W20_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5615942028985508</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.551829268292683</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.856353591160221</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1768707482993197</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.551829268292683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6783369803063457</v>
+        <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5060975609756098</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06474467951719033</v>
+        <v>0.1154740341419229</v>
       </c>
       <c r="J2" t="n">
-        <v>747.3364002385907</v>
+        <v>1488.176569768101</v>
       </c>
       <c r="K2" t="n">
-        <v>784508.1746673584</v>
+        <v>2797833.512249339</v>
       </c>
       <c r="L2" t="n">
-        <v>885.7246607537572</v>
+        <v>1672.672565760956</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8520097094993316</v>
+        <v>0.4722143023865257</v>
       </c>
     </row>
   </sheetData>
